--- a/주력상품_테스트_예시.xlsx
+++ b/주력상품_테스트_예시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRENE_XD\Documents\카카오톡 받은 파일\buyma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f245b15a35809d5a/문서/카카오톡 받은 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9884C31E-45EB-4297-A2B7-9938DFB16D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{9884C31E-45EB-4297-A2B7-9938DFB16D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1181EEEF-132B-4AAE-B538-9E8A2E8B4578}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07B43B4F-2B15-4CC6-9A51-92B0E28D71C5}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{07B43B4F-2B15-4CC6-9A51-92B0E28D71C5}"/>
   </bookViews>
   <sheets>
     <sheet name="주력상품_테스트_예시" sheetId="1" r:id="rId1"/>
@@ -20,43 +20,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Nike Air Jordan 1 High OG Chicago</t>
-  </si>
-  <si>
-    <t>Adidas Yeezy Boost 350 V2 Zebra</t>
-  </si>
-  <si>
-    <t>Louis Vuitton Neverfull MM Monogram</t>
-  </si>
-  <si>
-    <t>Chanel Classic Flap Bag Medium</t>
-  </si>
-  <si>
-    <t>Herm챔s Birkin 30 Togo Leather</t>
-  </si>
-  <si>
-    <t>Gucci GG Marmont Small Shoulder Bag</t>
-  </si>
-  <si>
-    <t>Prada Re-Edition 2005 Nylon Bag</t>
-  </si>
-  <si>
-    <t>Bottega Veneta Intrecciato Cassette Bag</t>
-  </si>
-  <si>
-    <t>Dior Lady Dior Medium Bag</t>
-  </si>
-  <si>
-    <t>Balenciaga City Classic Bag</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>상품ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Daisy Cat Brush Baggy Jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pulpy hobo bag Nylon</t>
+  </si>
+  <si>
+    <t>PAVE PETIT BAG</t>
+  </si>
+  <si>
+    <t>BURBERRY Monogram Ball cap</t>
+  </si>
+  <si>
+    <t>J0H29 YCW MH5</t>
+  </si>
+  <si>
+    <t>96 APPLIQUE 2WAY JOGGER</t>
+  </si>
+  <si>
+    <t>WKNDRS ANGEL STADIUM JACKET</t>
+  </si>
+  <si>
+    <t>WOMEN Refined Eyelet Buckle Tall Rain Boots</t>
+  </si>
+  <si>
+    <t>Praying CLUB BOXER SHORTS</t>
+  </si>
+  <si>
+    <t>GRAILZ MULTI ZIPPER BOMBER JACKET</t>
+  </si>
+  <si>
+    <t>ROUGHNECK WASHING CHECK SHIRT</t>
+  </si>
+  <si>
+    <t>WAPOBAG02V20147200</t>
+  </si>
+  <si>
+    <t>UPL346</t>
+  </si>
+  <si>
+    <t>IAM STUD DENIM JACKET</t>
+  </si>
+  <si>
+    <t>DE MERIEL VT Boston Bag</t>
+  </si>
+  <si>
+    <t>DE MERIEL Elise Hobo Bag Medium</t>
+  </si>
+  <si>
+    <t>FZ3592-259</t>
+  </si>
+  <si>
+    <t>M02740</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEGATIVETHREE Slouchy Long Boots</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vivienne Westwood Balbina Pearl Pendant Silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG T O.G trucker jacket Black</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Capsule 2 Way Curved Jogger</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEEL PLATFORM LOAFER BLACK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taraka bag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W CLASSIC LOGO CROP HOODIE ZIPUP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-Soul Dusty Pink Coral Orange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE MERIEL Haily Shoulder Bag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convex Denim Long Bermuda Pants</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAPING SLIT BOOTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gentle Monster  Tarx 02 Silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gel-Venture 6 Mink Vanila</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALT&amp;CHOCOLATE ACON SNEAKERS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vivienne Westwood Little Wallace</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAYEON LEE  ESTHER Dress</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 layered destroyed jeans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Gear WEBBING JACKET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHARAOH PANTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOHEMSEO LEG SLIT BOOTS CUT PANTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACADE PATTERN CABIN BAG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEINET  FRILL BIG BAG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VANISHMENT Pocket stripe long sleeve</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luen Signature Slim Hoodie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JACQUEMUS Le Bob Artichaut Bucket Hat white</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADERERROR Twin Heart Keyring Z-Blue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTE SHIMO SHOPPER BAG </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMALL VOYAGER BACKPACK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW BALANCE FW BREEZE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUERELIGION GRAND HUNTER JACKET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vivienne Westwood LUCRECE PEARL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATELIER DE LUMEN MONIQUE SHOULDER BAG</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1029,100 +1182,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E1A052-4655-4B83-A1E1-5BFBA7E8891E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>120624815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>120077637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>118809514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>122105675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>121361924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>117662451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>117321019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>117606804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>119307291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>119170067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>120489291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>120423743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>121826489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>121680207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>120769951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>120459967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>118745150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>117109054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>120707985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>120613521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>120181253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>117500647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>120701818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>119521322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>115160798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>119815627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>117783938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>117564806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>118879105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>122081503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>115435279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>122044595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>118350662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>117822053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>122353120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>117222298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>118953552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B39">
+        <v>119338647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>87654321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11223344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>55667788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>99887766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>44556677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>33445566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>22334455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>66778899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>77889900</v>
+      <c r="B40">
+        <v>115295211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>121766271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>117537476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>121778205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>121826679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>122047096</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>121705608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>121664474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>121351342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>120923005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>122153112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>120935771</v>
       </c>
     </row>
   </sheetData>
